--- a/PG研修振り返りフォーマット.xlsx
+++ b/PG研修振り返りフォーマット.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j359013\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j359013\Documents\PG実践研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C6309-F27C-4CC5-8A4A-582A4D2AE4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B77FB1D-A4D2-4276-9E48-8FD1D399FB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6FBF4AC5-F759-462F-98CF-027498A3E432}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>KEEP</t>
     <phoneticPr fontId="1"/>
@@ -128,33 +128,6 @@
     <rPh sb="3" eb="4">
       <t>タイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ソースコードのレビューの際、軽微な問題程度で抑えられている。</t>
-    <rPh sb="13" eb="14">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケイビ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・う</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -553,221 +526,221 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,93 +1121,93 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="16"/>
       <c r="O2" s="29"/>
       <c r="P2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="71"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="83"/>
       <c r="AB2" s="30"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="21"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="110"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="16"/>
       <c r="O3" s="29"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="74"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="86"/>
       <c r="AB3" s="30"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="21"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="113"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="16"/>
       <c r="O4" s="29"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="77"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="89"/>
       <c r="AB4" s="30"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -1242,93 +1215,93 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="16"/>
       <c r="O5" s="29"/>
       <c r="P5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="71"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="83"/>
       <c r="AB5" s="30"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="21"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="110"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="16"/>
       <c r="O6" s="29"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="86"/>
       <c r="AB6" s="30"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="113"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="16"/>
       <c r="O7" s="29"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="77"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="89"/>
       <c r="AB7" s="30"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -1336,93 +1309,93 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
       <c r="N8" s="16"/>
       <c r="O8" s="29"/>
       <c r="P8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="80"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="92"/>
       <c r="AB8" s="30"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="21"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="119"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
       <c r="N9" s="16"/>
       <c r="O9" s="29"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="83"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="95"/>
       <c r="AB9" s="30"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="21"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="122"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="16"/>
       <c r="O10" s="29"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="86"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="98"/>
       <c r="AB10" s="30"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -1430,99 +1403,93 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="107"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
       <c r="N11" s="16"/>
       <c r="O11" s="29"/>
       <c r="P11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="71"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="83"/>
       <c r="AB11" s="30"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="21"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
       <c r="N12" s="16"/>
       <c r="O12" s="29"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="74"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="86"/>
       <c r="AB12" s="30"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="21"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="113"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="16"/>
       <c r="O13" s="29"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="77"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="89"/>
       <c r="AB13" s="30"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -1530,93 +1497,93 @@
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="107"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
       <c r="N14" s="16"/>
       <c r="O14" s="29"/>
       <c r="P14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="71"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="83"/>
       <c r="AB14" s="30"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="21"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="110"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68"/>
       <c r="N15" s="16"/>
       <c r="O15" s="29"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="74"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="86"/>
       <c r="AB15" s="30"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="21"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="113"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="16"/>
       <c r="O16" s="29"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="77"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="89"/>
       <c r="AB16" s="30"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -1666,7 +1633,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="125" t="s">
+      <c r="O18" s="59" t="s">
         <v>8</v>
       </c>
       <c r="P18" s="41"/>
@@ -1688,95 +1655,95 @@
       <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="101"/>
       <c r="N19" s="17"/>
       <c r="O19" s="43"/>
-      <c r="P19" s="123" t="s">
+      <c r="P19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="65"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="119"/>
       <c r="AB19" s="44"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="37"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="92"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="104"/>
       <c r="N20" s="17"/>
       <c r="O20" s="43"/>
       <c r="P20" s="45"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="62"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="122"/>
       <c r="AB20" s="44"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="37"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="95"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="107"/>
       <c r="N21" s="17"/>
       <c r="O21" s="43"/>
-      <c r="P21" s="123" t="s">
+      <c r="P21" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="65"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="119"/>
       <c r="AB21" s="44"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -1784,93 +1751,93 @@
       <c r="B22" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="89"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="101"/>
       <c r="N22" s="17"/>
       <c r="O22" s="43"/>
       <c r="P22" s="45"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="62"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="122"/>
       <c r="AB22" s="44"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="37"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="104"/>
       <c r="N23" s="17"/>
       <c r="O23" s="43"/>
-      <c r="P23" s="124" t="s">
+      <c r="P23" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="65"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="119"/>
       <c r="AB23" s="44"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="37"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="95"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="107"/>
       <c r="N24" s="17"/>
       <c r="O24" s="43"/>
       <c r="P24" s="45"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="62"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="122"/>
       <c r="AB24" s="44"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -1878,17 +1845,17 @@
       <c r="B25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="98"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="110"/>
       <c r="N25" s="17"/>
       <c r="O25" s="46"/>
       <c r="P25" s="47"/>
@@ -1908,17 +1875,17 @@
     <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="37"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="113"/>
       <c r="N26" s="17"/>
       <c r="O26" s="49"/>
       <c r="P26" s="50"/>
@@ -1938,20 +1905,20 @@
     <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="37"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="104"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
       <c r="N27" s="17"/>
       <c r="O27" s="49"/>
-      <c r="P27" s="126" t="s">
+      <c r="P27" s="60" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="52"/>
@@ -1972,80 +1939,80 @@
       <c r="B28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="89"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="101"/>
       <c r="N28" s="17"/>
       <c r="O28" s="49"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="68"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="125"/>
       <c r="AB28" s="51"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="37"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="92"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="104"/>
       <c r="N29" s="17"/>
       <c r="O29" s="49"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="59"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="128"/>
       <c r="AB29" s="51"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="37"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="95"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="107"/>
       <c r="N30" s="17"/>
       <c r="O30" s="49"/>
-      <c r="P30" s="126" t="s">
+      <c r="P30" s="60" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="52"/>
@@ -2066,50 +2033,50 @@
       <c r="B31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="89"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="101"/>
       <c r="N31" s="17"/>
       <c r="O31" s="49"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="59"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="128"/>
       <c r="AB31" s="51"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="37"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="92"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="104"/>
       <c r="N32" s="17"/>
       <c r="O32" s="49"/>
-      <c r="P32" s="127" t="s">
+      <c r="P32" s="61" t="s">
         <v>13</v>
       </c>
       <c r="Q32" s="50"/>
@@ -2128,31 +2095,31 @@
     <row r="33" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="37"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="95"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="107"/>
       <c r="N33" s="17"/>
       <c r="O33" s="49"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="59"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="128"/>
       <c r="AB33" s="51"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -2177,11 +2144,11 @@
       <c r="S34" s="55"/>
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
-      <c r="V34" s="128" t="s">
+      <c r="V34" s="62" t="s">
         <v>9</v>
       </c>
       <c r="W34" s="55"/>
-      <c r="X34" s="128" t="s">
+      <c r="X34" s="62" t="s">
         <v>10</v>
       </c>
       <c r="Y34" s="55"/>
@@ -2191,21 +2158,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C32:M32"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="P33:AA33"/>
+    <mergeCell ref="Q22:AA22"/>
+    <mergeCell ref="Q23:AA23"/>
+    <mergeCell ref="Q24:AA24"/>
+    <mergeCell ref="P28:AA28"/>
+    <mergeCell ref="P29:AA29"/>
+    <mergeCell ref="P31:AA31"/>
+    <mergeCell ref="Q21:AA21"/>
+    <mergeCell ref="Q8:AA8"/>
+    <mergeCell ref="Q9:AA9"/>
+    <mergeCell ref="Q10:AA10"/>
+    <mergeCell ref="Q11:AA11"/>
+    <mergeCell ref="Q12:AA12"/>
+    <mergeCell ref="Q13:AA13"/>
+    <mergeCell ref="Q14:AA14"/>
+    <mergeCell ref="Q15:AA15"/>
+    <mergeCell ref="Q16:AA16"/>
+    <mergeCell ref="Q19:AA19"/>
+    <mergeCell ref="Q20:AA20"/>
+    <mergeCell ref="Q2:AA2"/>
+    <mergeCell ref="Q3:AA3"/>
+    <mergeCell ref="Q4:AA4"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="Q6:AA6"/>
     <mergeCell ref="Q7:AA7"/>
     <mergeCell ref="C28:M28"/>
     <mergeCell ref="C29:M29"/>
@@ -2222,30 +2198,21 @@
     <mergeCell ref="C9:M9"/>
     <mergeCell ref="C10:M10"/>
     <mergeCell ref="C12:M12"/>
-    <mergeCell ref="Q2:AA2"/>
-    <mergeCell ref="Q3:AA3"/>
-    <mergeCell ref="Q4:AA4"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="Q6:AA6"/>
-    <mergeCell ref="Q21:AA21"/>
-    <mergeCell ref="Q8:AA8"/>
-    <mergeCell ref="Q9:AA9"/>
-    <mergeCell ref="Q10:AA10"/>
-    <mergeCell ref="Q11:AA11"/>
-    <mergeCell ref="Q12:AA12"/>
-    <mergeCell ref="Q13:AA13"/>
-    <mergeCell ref="Q14:AA14"/>
-    <mergeCell ref="Q15:AA15"/>
-    <mergeCell ref="Q16:AA16"/>
-    <mergeCell ref="Q19:AA19"/>
-    <mergeCell ref="Q20:AA20"/>
-    <mergeCell ref="P33:AA33"/>
-    <mergeCell ref="Q22:AA22"/>
-    <mergeCell ref="Q23:AA23"/>
-    <mergeCell ref="Q24:AA24"/>
-    <mergeCell ref="P28:AA28"/>
-    <mergeCell ref="P29:AA29"/>
-    <mergeCell ref="P31:AA31"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
